--- a/unr-verben/unr-verben.xlsx
+++ b/unr-verben/unr-verben.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="315" windowWidth="13680" windowHeight="7710"/>
@@ -11,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="613">
   <si>
     <t>zmywać (np. naczynia)</t>
   </si>
@@ -1843,6 +1843,18 @@
   </si>
   <si>
     <t>hängte</t>
+  </si>
+  <si>
+    <t>blasen</t>
+  </si>
+  <si>
+    <t>bläst</t>
+  </si>
+  <si>
+    <t>blies</t>
+  </si>
+  <si>
+    <t>h geblasen</t>
   </si>
 </sst>
 </file>
@@ -2175,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6120,7 +6132,7 @@
         <v>589</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" ref="J121:J140" si="9">IF(COUNTA(C121)&gt;0,"(+ Präsens)","")</f>
+        <f t="shared" ref="J121:J143" si="9">IF(COUNTA(C121)&gt;0,"(+ Präsens)","")</f>
         <v/>
       </c>
     </row>
@@ -6743,6 +6755,13 @@
         <v/>
       </c>
     </row>
+    <row r="141" spans="1:10">
+      <c r="H141" s="1"/>
+      <c r="J141" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>602</v>
@@ -6752,6 +6771,34 @@
       </c>
       <c r="G142" t="s">
         <v>604</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>609</v>
+      </c>
+      <c r="C143" t="s">
+        <v>610</v>
+      </c>
+      <c r="E143" t="s">
+        <v>611</v>
+      </c>
+      <c r="G143" t="s">
+        <v>612</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="9"/>
+        <v>(+ Präsens)</v>
       </c>
     </row>
   </sheetData>

--- a/unr-verben/unr-verben.xlsx
+++ b/unr-verben/unr-verben.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="13680" windowHeight="7710"/>
+    <workbookView xWindow="720" yWindow="312" windowWidth="13680" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="625">
   <si>
     <t>zmywać (np. naczynia)</t>
   </si>
@@ -1855,6 +1855,42 @@
   </si>
   <si>
     <t>h geblasen</t>
+  </si>
+  <si>
+    <t>erringen</t>
+  </si>
+  <si>
+    <t>errang</t>
+  </si>
+  <si>
+    <t>h errungen</t>
+  </si>
+  <si>
+    <t>osiagac</t>
+  </si>
+  <si>
+    <t>begegnen</t>
+  </si>
+  <si>
+    <t>s begegnet</t>
+  </si>
+  <si>
+    <t>towarzyszyć</t>
+  </si>
+  <si>
+    <t>abbiegen</t>
+  </si>
+  <si>
+    <t>s abgebogen</t>
+  </si>
+  <si>
+    <t>skręcać</t>
+  </si>
+  <si>
+    <t>erkennen</t>
+  </si>
+  <si>
+    <t>h erkannt</t>
   </si>
 </sst>
 </file>
@@ -2187,24 +2223,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J143"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" customWidth="1"/>
+    <col min="2" max="2" width="3.8984375" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6799,6 +6835,50 @@
       <c r="J143" t="str">
         <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>613</v>
+      </c>
+      <c r="E144" t="s">
+        <v>614</v>
+      </c>
+      <c r="G144" t="s">
+        <v>615</v>
+      </c>
+      <c r="I144" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>617</v>
+      </c>
+      <c r="G145" t="s">
+        <v>618</v>
+      </c>
+      <c r="I145" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>620</v>
+      </c>
+      <c r="G146" t="s">
+        <v>621</v>
+      </c>
+      <c r="I146" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>623</v>
+      </c>
+      <c r="G147" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -6815,7 +6895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6827,7 +6907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/unr-verben/unr-verben.xlsx
+++ b/unr-verben/unr-verben.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="347" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="347"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Arkusz2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Arkusz3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -1904,31 +1903,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1940,7 +1921,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1948,115 +1929,364 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.89878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.89878542510121"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.59919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.59919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="23.3984375"/>
+    <col min="2" max="2" width="3.8984375"/>
+    <col min="3" max="3" width="12"/>
+    <col min="4" max="4" width="3.8984375"/>
+    <col min="5" max="5" width="9.59765625"/>
+    <col min="6" max="6" width="3.69921875"/>
+    <col min="7" max="7" width="17.5"/>
+    <col min="8" max="8" width="3.59765625"/>
+    <col min="9" max="9" width="29"/>
+    <col min="10" max="10" width="10.59765625"/>
+    <col min="11" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f aca="false">IF(COUNTA(C1)&gt;0, "%P", "")</f>
+        <f t="shared" ref="B1:B22" si="0">IF(COUNTA(C1)&gt;0, "%P", "")</f>
         <v/>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="0" t="str">
-        <f aca="false">IF(COUNTA(C1)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" t="str">
+        <f t="shared" ref="J1:J22" si="1">IF(COUNTA(C1)&gt;0,"(+ Präsens)","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f aca="false">IF(COUNTA(C2)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v>%P</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2077,20 +2307,20 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="str">
-        <f aca="false">IF(COUNTA(C2)&gt;0,"(+ Präsens)","")</f>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f aca="false">IF(COUNTA(C3)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v>%P</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2111,20 +2341,20 @@
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0" t="str">
-        <f aca="false">IF(COUNTA(C3)&gt;0,"(+ Präsens)","")</f>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f aca="false">IF(COUNTA(C4)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C4" s="1"/>
@@ -2146,17 +2376,17 @@
       <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="0" t="str">
-        <f aca="false">IF(COUNTA(C4)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f aca="false">IF(COUNTA(C5)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C5" s="1"/>
@@ -2178,17 +2408,17 @@
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="0" t="str">
-        <f aca="false">IF(COUNTA(C5)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f aca="false">IF(COUNTA(C6)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C6" s="1"/>
@@ -2210,17 +2440,17 @@
       <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="0" t="str">
-        <f aca="false">IF(COUNTA(C6)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f aca="false">IF(COUNTA(C7)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C7" s="1"/>
@@ -2242,17 +2472,17 @@
       <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="0" t="str">
-        <f aca="false">IF(COUNTA(C7)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f aca="false">IF(COUNTA(C8)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C8" s="1"/>
@@ -2274,17 +2504,17 @@
       <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="0" t="str">
-        <f aca="false">IF(COUNTA(C8)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f aca="false">IF(COUNTA(C9)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C9" s="1"/>
@@ -2303,20 +2533,20 @@
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="0" t="str">
-        <f aca="false">IF(COUNTA(C9)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f aca="false">IF(COUNTA(C10)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C10" s="1"/>
@@ -2335,20 +2565,20 @@
       <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="0" t="str">
-        <f aca="false">IF(COUNTA(C10)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f aca="false">IF(COUNTA(C11)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C11" s="1"/>
@@ -2370,17 +2600,17 @@
       <c r="I11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="0" t="str">
-        <f aca="false">IF(COUNTA(C11)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f aca="false">IF(COUNTA(C12)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C12" s="1"/>
@@ -2402,48 +2632,48 @@
       <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="0" t="str">
-        <f aca="false">IF(COUNTA(C12)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f aca="false">IF(COUNTA(C13)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="0" t="str">
-        <f aca="false">IF(COUNTA(C13)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f aca="false">IF(COUNTA(C14)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C14" s="1"/>
@@ -2465,17 +2695,17 @@
       <c r="I14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="0" t="str">
-        <f aca="false">IF(COUNTA(C14)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f aca="false">IF(COUNTA(C15)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v>%P</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2499,17 +2729,17 @@
       <c r="I15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="0" t="str">
-        <f aca="false">IF(COUNTA(C15)&gt;0,"(+ Präsens)","")</f>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f aca="false">IF(COUNTA(C16)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v>%P</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2533,17 +2763,17 @@
       <c r="I16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="0" t="str">
-        <f aca="false">IF(COUNTA(C16)&gt;0,"(+ Präsens)","")</f>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f aca="false">IF(COUNTA(C17)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C17" s="1"/>
@@ -2565,17 +2795,17 @@
       <c r="I17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="0" t="str">
-        <f aca="false">IF(COUNTA(C17)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f aca="false">IF(COUNTA(C18)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C18" s="1"/>
@@ -2597,17 +2827,17 @@
       <c r="I18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="0" t="str">
-        <f aca="false">IF(COUNTA(C18)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f aca="false">IF(COUNTA(C19)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C19" s="1"/>
@@ -2629,17 +2859,17 @@
       <c r="I19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="0" t="str">
-        <f aca="false">IF(COUNTA(C19)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f aca="false">IF(COUNTA(C20)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v>%P</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2660,20 +2890,20 @@
       <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="0" t="str">
-        <f aca="false">IF(COUNTA(C20)&gt;0,"(+ Präsens)","")</f>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f aca="false">IF(COUNTA(C21)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C21" s="1"/>
@@ -2692,20 +2922,20 @@
       <c r="H21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="0" t="str">
-        <f aca="false">IF(COUNTA(C21)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f aca="false">IF(COUNTA(C22)&gt;0, "%P", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C22" s="1"/>
@@ -2727,12 +2957,12 @@
       <c r="I22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="0" t="str">
-        <f aca="false">IF(COUNTA(C22)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
@@ -2755,15 +2985,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f aca="false">IF(COUNTA(C24)&gt;0, "%P", "")</f>
+        <f t="shared" ref="B24:B49" si="2">IF(COUNTA(C24)&gt;0, "%P", "")</f>
         <v>%P</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2784,17 +3014,17 @@
       <c r="I24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="0" t="str">
-        <f aca="false">IF(COUNTA(C24)&gt;0,"(+ Präsens)","")</f>
+      <c r="J24" t="str">
+        <f t="shared" ref="J24:J49" si="3">IF(COUNTA(C24)&gt;0,"(+ Präsens)","")</f>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f aca="false">IF(COUNTA(C25)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2818,17 +3048,17 @@
       <c r="I25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="0" t="str">
-        <f aca="false">IF(COUNTA(C25)&gt;0,"(+ Präsens)","")</f>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f aca="false">IF(COUNTA(C26)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2852,17 +3082,17 @@
       <c r="I26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="0" t="str">
-        <f aca="false">IF(COUNTA(C26)&gt;0,"(+ Präsens)","")</f>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f aca="false">IF(COUNTA(C27)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2886,20 +3116,20 @@
       <c r="I27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J27" s="0" t="str">
-        <f aca="false">IF(COUNTA(C27)&gt;0,"(+ Präsens)","")</f>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f aca="false">IF(COUNTA(C28)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2920,17 +3150,17 @@
       <c r="I28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="0" t="str">
-        <f aca="false">IF(COUNTA(C28)&gt;0,"(+ Präsens)","")</f>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f aca="false">IF(COUNTA(C29)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C29" s="1"/>
@@ -2952,17 +3182,17 @@
       <c r="I29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="0" t="str">
-        <f aca="false">IF(COUNTA(C29)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f aca="false">IF(COUNTA(C30)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C30" s="1"/>
@@ -2984,17 +3214,17 @@
       <c r="I30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J30" s="0" t="str">
-        <f aca="false">IF(COUNTA(C30)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f aca="false">IF(COUNTA(C31)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C31" s="1"/>
@@ -3016,17 +3246,17 @@
       <c r="I31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J31" s="0" t="str">
-        <f aca="false">IF(COUNTA(C31)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f aca="false">IF(COUNTA(C32)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C32" s="1"/>
@@ -3048,17 +3278,17 @@
       <c r="I32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J32" s="0" t="str">
-        <f aca="false">IF(COUNTA(C32)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f aca="false">IF(COUNTA(C33)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C33" s="1"/>
@@ -3080,17 +3310,17 @@
       <c r="I33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J33" s="0" t="str">
-        <f aca="false">IF(COUNTA(C33)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f aca="false">IF(COUNTA(C34)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C34" s="1"/>
@@ -3109,23 +3339,23 @@
       <c r="H34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="0" t="str">
-        <f aca="false">IF(COUNTA(C34)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f aca="false">IF(COUNTA(C35)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>150</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3143,20 +3373,20 @@
       <c r="H35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" t="s">
         <v>153</v>
       </c>
-      <c r="J35" s="0" t="str">
-        <f aca="false">IF(COUNTA(C35)&gt;0,"(+ Präsens)","")</f>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f aca="false">IF(COUNTA(C36)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3180,17 +3410,17 @@
       <c r="I36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="0" t="str">
-        <f aca="false">IF(COUNTA(C36)&gt;0,"(+ Präsens)","")</f>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f aca="false">IF(COUNTA(C37)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C37" s="1"/>
@@ -3212,17 +3442,17 @@
       <c r="I37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J37" s="0" t="str">
-        <f aca="false">IF(COUNTA(C37)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f aca="false">IF(COUNTA(C38)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D38" s="1" t="s">
@@ -3243,20 +3473,20 @@
       <c r="I38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="0" t="str">
-        <f aca="false">IF(COUNTA(C38)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f aca="false">IF(COUNTA(C39)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3277,17 +3507,17 @@
       <c r="I39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J39" s="0" t="str">
-        <f aca="false">IF(COUNTA(C39)&gt;0,"(+ Präsens)","")</f>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f aca="false">IF(COUNTA(C40)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C40" s="1"/>
@@ -3309,17 +3539,17 @@
       <c r="I40" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J40" s="0" t="str">
-        <f aca="false">IF(COUNTA(C40)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f aca="false">IF(COUNTA(C41)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3343,17 +3573,17 @@
       <c r="I41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J41" s="0" t="str">
-        <f aca="false">IF(COUNTA(C41)&gt;0,"(+ Präsens)","")</f>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f aca="false">IF(COUNTA(C42)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C42" s="1"/>
@@ -3375,17 +3605,17 @@
       <c r="I42" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J42" s="0" t="str">
-        <f aca="false">IF(COUNTA(C42)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f aca="false">IF(COUNTA(C43)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C43" s="1"/>
@@ -3407,17 +3637,17 @@
       <c r="I43" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J43" s="0" t="str">
-        <f aca="false">IF(COUNTA(C43)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f aca="false">IF(COUNTA(C44)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C44" s="1"/>
@@ -3439,17 +3669,17 @@
       <c r="I44" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J44" s="0" t="str">
-        <f aca="false">IF(COUNTA(C44)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f aca="false">IF(COUNTA(C45)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C45" s="1"/>
@@ -3471,17 +3701,17 @@
       <c r="I45" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="0" t="str">
-        <f aca="false">IF(COUNTA(C45)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f aca="false">IF(COUNTA(C46)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C46" s="1"/>
@@ -3503,17 +3733,17 @@
       <c r="I46" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J46" s="0" t="str">
-        <f aca="false">IF(COUNTA(C46)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f aca="false">IF(COUNTA(C47)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C47" s="1"/>
@@ -3535,17 +3765,17 @@
       <c r="I47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J47" s="0" t="str">
-        <f aca="false">IF(COUNTA(C47)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f aca="false">IF(COUNTA(C48)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v>%P</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3569,17 +3799,17 @@
       <c r="I48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J48" s="0" t="str">
-        <f aca="false">IF(COUNTA(C48)&gt;0,"(+ Präsens)","")</f>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f aca="false">IF(COUNTA(C49)&gt;0, "%P", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C49" s="1"/>
@@ -3601,12 +3831,12 @@
       <c r="I49" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J49" s="0" t="str">
-        <f aca="false">IF(COUNTA(C49)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>210</v>
       </c>
@@ -3633,12 +3863,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f aca="false">IF(COUNTA(C51)&gt;0, "%P", "")</f>
+        <f t="shared" ref="B51:B82" si="4">IF(COUNTA(C51)&gt;0, "%P", "")</f>
         <v/>
       </c>
       <c r="C51" s="1"/>
@@ -3660,17 +3890,17 @@
       <c r="I51" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J51" s="0" t="str">
-        <f aca="false">IF(COUNTA(C51)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" t="str">
+        <f t="shared" ref="J51:J82" si="5">IF(COUNTA(C51)&gt;0,"(+ Präsens)","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f aca="false">IF(COUNTA(C52)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C52" s="1"/>
@@ -3692,51 +3922,51 @@
       <c r="I52" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J52" s="0" t="str">
-        <f aca="false">IF(COUNTA(C52)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="J52" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>226</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f aca="false">IF(COUNTA(C53)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>227</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>228</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" t="s">
         <v>229</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" t="s">
         <v>230</v>
       </c>
-      <c r="J53" s="0" t="str">
-        <f aca="false">IF(COUNTA(C53)&gt;0,"(+ Präsens)","")</f>
+      <c r="J53" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f aca="false">IF(COUNTA(C54)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C54" s="1"/>
@@ -3758,17 +3988,17 @@
       <c r="I54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J54" s="0" t="str">
-        <f aca="false">IF(COUNTA(C54)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f aca="false">IF(COUNTA(C55)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C55" s="1"/>
@@ -3790,17 +4020,17 @@
       <c r="I55" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J55" s="0" t="str">
-        <f aca="false">IF(COUNTA(C55)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f aca="false">IF(COUNTA(C56)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C56" s="1"/>
@@ -3822,17 +4052,17 @@
       <c r="I56" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J56" s="0" t="str">
-        <f aca="false">IF(COUNTA(C56)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f aca="false">IF(COUNTA(C57)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C57" s="1"/>
@@ -3854,17 +4084,17 @@
       <c r="I57" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J57" s="0" t="str">
-        <f aca="false">IF(COUNTA(C57)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f aca="false">IF(COUNTA(C58)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C58" s="1"/>
@@ -3883,23 +4113,23 @@
       <c r="H58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" t="s">
         <v>250</v>
       </c>
-      <c r="J58" s="0" t="str">
-        <f aca="false">IF(COUNTA(C58)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f aca="false">IF(COUNTA(C59)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>252</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3917,20 +4147,20 @@
       <c r="H59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" t="s">
         <v>255</v>
       </c>
-      <c r="J59" s="0" t="str">
-        <f aca="false">IF(COUNTA(C59)&gt;0,"(+ Präsens)","")</f>
+      <c r="J59" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f aca="false">IF(COUNTA(C60)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3954,17 +4184,17 @@
       <c r="I60" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J60" s="0" t="str">
-        <f aca="false">IF(COUNTA(C60)&gt;0,"(+ Präsens)","")</f>
+      <c r="J60" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f aca="false">IF(COUNTA(C61)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3988,48 +4218,48 @@
       <c r="I61" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J61" s="0" t="str">
-        <f aca="false">IF(COUNTA(C61)&gt;0,"(+ Präsens)","")</f>
+      <c r="J61" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
         <v>266</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f aca="false">IF(COUNTA(C62)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>267</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" t="s">
         <v>268</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" t="s">
         <v>269</v>
       </c>
-      <c r="J62" s="0" t="str">
-        <f aca="false">IF(COUNTA(C62)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f aca="false">IF(COUNTA(C63)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C63" s="1"/>
@@ -4051,17 +4281,17 @@
       <c r="I63" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J63" s="0" t="str">
-        <f aca="false">IF(COUNTA(C63)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f aca="false">IF(COUNTA(C64)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4085,17 +4315,17 @@
       <c r="I64" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J64" s="0" t="str">
-        <f aca="false">IF(COUNTA(C64)&gt;0,"(+ Präsens)","")</f>
+      <c r="J64" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f aca="false">IF(COUNTA(C65)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C65" s="1"/>
@@ -4117,17 +4347,17 @@
       <c r="I65" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J65" s="0" t="str">
-        <f aca="false">IF(COUNTA(C65)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f aca="false">IF(COUNTA(C66)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C66" s="1"/>
@@ -4149,17 +4379,17 @@
       <c r="I66" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="J66" s="0" t="str">
-        <f aca="false">IF(COUNTA(C66)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f aca="false">IF(COUNTA(C67)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4183,17 +4413,17 @@
       <c r="I67" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J67" s="0" t="str">
-        <f aca="false">IF(COUNTA(C67)&gt;0,"(+ Präsens)","")</f>
+      <c r="J67" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f aca="false">IF(COUNTA(C68)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C68" s="1"/>
@@ -4215,17 +4445,17 @@
       <c r="I68" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J68" s="0" t="str">
-        <f aca="false">IF(COUNTA(C68)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f aca="false">IF(COUNTA(C69)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C69" s="1"/>
@@ -4247,17 +4477,17 @@
       <c r="I69" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J69" s="0" t="str">
-        <f aca="false">IF(COUNTA(C69)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f aca="false">IF(COUNTA(C70)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4281,17 +4511,17 @@
       <c r="I70" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J70" s="0" t="str">
-        <f aca="false">IF(COUNTA(C70)&gt;0,"(+ Präsens)","")</f>
+      <c r="J70" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f aca="false">IF(COUNTA(C71)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C71" s="1"/>
@@ -4313,17 +4543,17 @@
       <c r="I71" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J71" s="0" t="str">
-        <f aca="false">IF(COUNTA(C71)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f aca="false">IF(COUNTA(C72)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C72" s="1"/>
@@ -4345,17 +4575,17 @@
       <c r="I72" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J72" s="0" t="str">
-        <f aca="false">IF(COUNTA(C72)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f aca="false">IF(COUNTA(C73)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4379,17 +4609,17 @@
       <c r="I73" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J73" s="0" t="str">
-        <f aca="false">IF(COUNTA(C73)&gt;0,"(+ Präsens)","")</f>
+      <c r="J73" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f aca="false">IF(COUNTA(C74)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C74" s="1"/>
@@ -4411,17 +4641,17 @@
       <c r="I74" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J74" s="0" t="str">
-        <f aca="false">IF(COUNTA(C74)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f aca="false">IF(COUNTA(C75)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C75" s="1"/>
@@ -4440,20 +4670,20 @@
       <c r="H75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="0" t="s">
+      <c r="I75" t="s">
         <v>325</v>
       </c>
-      <c r="J75" s="0" t="str">
-        <f aca="false">IF(COUNTA(C75)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f aca="false">IF(COUNTA(C76)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C76" s="1"/>
@@ -4475,17 +4705,17 @@
       <c r="I76" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J76" s="0" t="str">
-        <f aca="false">IF(COUNTA(C76)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f aca="false">IF(COUNTA(C77)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C77" s="1"/>
@@ -4507,17 +4737,17 @@
       <c r="I77" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J77" s="0" t="str">
-        <f aca="false">IF(COUNTA(C77)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f aca="false">IF(COUNTA(C78)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C78" s="1"/>
@@ -4536,20 +4766,20 @@
       <c r="H78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="0" t="s">
+      <c r="I78" t="s">
         <v>337</v>
       </c>
-      <c r="J78" s="0" t="str">
-        <f aca="false">IF(COUNTA(C78)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f aca="false">IF(COUNTA(C79)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C79" s="1"/>
@@ -4571,20 +4801,20 @@
       <c r="I79" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J79" s="0" t="str">
-        <f aca="false">IF(COUNTA(C79)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f aca="false">IF(COUNTA(C80)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>343</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -4605,17 +4835,17 @@
       <c r="I80" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J80" s="0" t="str">
-        <f aca="false">IF(COUNTA(C80)&gt;0,"(+ Präsens)","")</f>
+      <c r="J80" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f aca="false">IF(COUNTA(C81)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v>%P</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4639,17 +4869,17 @@
       <c r="I81" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="J81" s="0" t="str">
-        <f aca="false">IF(COUNTA(C81)&gt;0,"(+ Präsens)","")</f>
+      <c r="J81" t="str">
+        <f t="shared" si="5"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f aca="false">IF(COUNTA(C82)&gt;0, "%P", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C82" s="1"/>
@@ -4671,17 +4901,17 @@
       <c r="I82" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J82" s="0" t="str">
-        <f aca="false">IF(COUNTA(C82)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J82" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f aca="false">IF(COUNTA(C83)&gt;0, "%P", "")</f>
+        <f t="shared" ref="B83:B114" si="6">IF(COUNTA(C83)&gt;0, "%P", "")</f>
         <v/>
       </c>
       <c r="C83" s="1"/>
@@ -4703,17 +4933,17 @@
       <c r="I83" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="J83" s="0" t="str">
-        <f aca="false">IF(COUNTA(C83)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" t="str">
+        <f t="shared" ref="J83:J114" si="7">IF(COUNTA(C83)&gt;0,"(+ Präsens)","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f aca="false">IF(COUNTA(C84)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C84" s="1"/>
@@ -4735,17 +4965,17 @@
       <c r="I84" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J84" s="0" t="str">
-        <f aca="false">IF(COUNTA(C84)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f aca="false">IF(COUNTA(C85)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C85" s="1"/>
@@ -4767,17 +4997,17 @@
       <c r="I85" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J85" s="0" t="str">
-        <f aca="false">IF(COUNTA(C85)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f aca="false">IF(COUNTA(C86)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C86" s="1"/>
@@ -4799,17 +5029,17 @@
       <c r="I86" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J86" s="0" t="str">
-        <f aca="false">IF(COUNTA(C86)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f aca="false">IF(COUNTA(C87)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C87" s="1"/>
@@ -4831,17 +5061,17 @@
       <c r="I87" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J87" s="0" t="str">
-        <f aca="false">IF(COUNTA(C87)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J87" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f aca="false">IF(COUNTA(C88)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C88" s="1"/>
@@ -4863,17 +5093,17 @@
       <c r="I88" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J88" s="0" t="str">
-        <f aca="false">IF(COUNTA(C88)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f aca="false">IF(COUNTA(C89)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -4897,17 +5127,17 @@
       <c r="I89" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J89" s="0" t="str">
-        <f aca="false">IF(COUNTA(C89)&gt;0,"(+ Präsens)","")</f>
+      <c r="J89" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f aca="false">IF(COUNTA(C90)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C90" s="1"/>
@@ -4929,17 +5159,17 @@
       <c r="I90" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J90" s="0" t="str">
-        <f aca="false">IF(COUNTA(C90)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f aca="false">IF(COUNTA(C91)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C91" s="1"/>
@@ -4961,17 +5191,17 @@
       <c r="I91" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J91" s="0" t="str">
-        <f aca="false">IF(COUNTA(C91)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J91" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f aca="false">IF(COUNTA(C92)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C92" s="1"/>
@@ -4993,17 +5223,17 @@
       <c r="I92" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J92" s="0" t="str">
-        <f aca="false">IF(COUNTA(C92)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J92" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f aca="false">IF(COUNTA(C93)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C93" s="1"/>
@@ -5025,17 +5255,17 @@
       <c r="I93" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J93" s="0" t="str">
-        <f aca="false">IF(COUNTA(C93)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f aca="false">IF(COUNTA(C94)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C94" s="1"/>
@@ -5057,17 +5287,17 @@
       <c r="I94" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J94" s="0" t="str">
-        <f aca="false">IF(COUNTA(C94)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f aca="false">IF(COUNTA(C95)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C95" s="1"/>
@@ -5089,17 +5319,17 @@
       <c r="I95" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J95" s="0" t="str">
-        <f aca="false">IF(COUNTA(C95)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f aca="false">IF(COUNTA(C96)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D96" s="1" t="s">
@@ -5120,17 +5350,17 @@
       <c r="I96" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J96" s="0" t="str">
-        <f aca="false">IF(COUNTA(C96)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J96" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f aca="false">IF(COUNTA(C97)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -5154,17 +5384,17 @@
       <c r="I97" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J97" s="0" t="str">
-        <f aca="false">IF(COUNTA(C97)&gt;0,"(+ Präsens)","")</f>
+      <c r="J97" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f aca="false">IF(COUNTA(C98)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5188,17 +5418,17 @@
       <c r="I98" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J98" s="0" t="str">
-        <f aca="false">IF(COUNTA(C98)&gt;0,"(+ Präsens)","")</f>
+      <c r="J98" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f aca="false">IF(COUNTA(C99)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C99" s="1"/>
@@ -5220,17 +5450,17 @@
       <c r="I99" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J99" s="0" t="str">
-        <f aca="false">IF(COUNTA(C99)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f aca="false">IF(COUNTA(C100)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5251,20 +5481,20 @@
       <c r="H100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="0" t="s">
+      <c r="I100" t="s">
         <v>431</v>
       </c>
-      <c r="J100" s="0" t="str">
-        <f aca="false">IF(COUNTA(C100)&gt;0,"(+ Präsens)","")</f>
+      <c r="J100" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f aca="false">IF(COUNTA(C101)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C101" s="1"/>
@@ -5283,20 +5513,20 @@
       <c r="H101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="0" t="s">
+      <c r="I101" t="s">
         <v>435</v>
       </c>
-      <c r="J101" s="0" t="str">
-        <f aca="false">IF(COUNTA(C101)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J101" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f aca="false">IF(COUNTA(C102)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C102" s="1"/>
@@ -5318,17 +5548,17 @@
       <c r="I102" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J102" s="0" t="str">
-        <f aca="false">IF(COUNTA(C102)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f aca="false">IF(COUNTA(C103)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C103" s="1"/>
@@ -5350,17 +5580,17 @@
       <c r="I103" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="J103" s="0" t="str">
-        <f aca="false">IF(COUNTA(C103)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J103" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f aca="false">IF(COUNTA(C104)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -5384,17 +5614,17 @@
       <c r="I104" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J104" s="0" t="str">
-        <f aca="false">IF(COUNTA(C104)&gt;0,"(+ Präsens)","")</f>
+      <c r="J104" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f aca="false">IF(COUNTA(C105)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C105" s="1"/>
@@ -5416,17 +5646,17 @@
       <c r="I105" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="J105" s="0" t="str">
-        <f aca="false">IF(COUNTA(C105)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J105" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f aca="false">IF(COUNTA(C106)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C106" s="1"/>
@@ -5448,17 +5678,17 @@
       <c r="I106" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="J106" s="0" t="str">
-        <f aca="false">IF(COUNTA(C106)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J106" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f aca="false">IF(COUNTA(C107)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5482,17 +5712,17 @@
       <c r="I107" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J107" s="0" t="str">
-        <f aca="false">IF(COUNTA(C107)&gt;0,"(+ Präsens)","")</f>
+      <c r="J107" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f aca="false">IF(COUNTA(C108)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C108" s="1"/>
@@ -5514,51 +5744,51 @@
       <c r="I108" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="J108" s="0" t="str">
-        <f aca="false">IF(COUNTA(C108)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="J108" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
         <v>466</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f aca="false">IF(COUNTA(C109)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>467</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" t="s">
         <v>468</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" t="s">
         <v>469</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I109" s="0" t="s">
+      <c r="I109" t="s">
         <v>470</v>
       </c>
-      <c r="J109" s="0" t="str">
-        <f aca="false">IF(COUNTA(C109)&gt;0,"(+ Präsens)","")</f>
+      <c r="J109" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f aca="false">IF(COUNTA(C110)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5579,20 +5809,20 @@
       <c r="H110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I110" s="0" t="s">
+      <c r="I110" t="s">
         <v>475</v>
       </c>
-      <c r="J110" s="0" t="str">
-        <f aca="false">IF(COUNTA(C110)&gt;0,"(+ Präsens)","")</f>
+      <c r="J110" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f aca="false">IF(COUNTA(C111)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C111" s="1"/>
@@ -5611,20 +5841,20 @@
       <c r="H111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I111" s="0" t="s">
+      <c r="I111" t="s">
         <v>479</v>
       </c>
-      <c r="J111" s="0" t="str">
-        <f aca="false">IF(COUNTA(C111)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J111" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f aca="false">IF(COUNTA(C112)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C112" s="1"/>
@@ -5646,17 +5876,17 @@
       <c r="I112" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="J112" s="0" t="str">
-        <f aca="false">IF(COUNTA(C112)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J112" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f aca="false">IF(COUNTA(C113)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5680,17 +5910,17 @@
       <c r="I113" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J113" s="0" t="str">
-        <f aca="false">IF(COUNTA(C113)&gt;0,"(+ Präsens)","")</f>
+      <c r="J113" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f aca="false">IF(COUNTA(C114)&gt;0, "%P", "")</f>
+        <f t="shared" si="6"/>
         <v>%P</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5714,17 +5944,17 @@
       <c r="I114" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="J114" s="0" t="str">
-        <f aca="false">IF(COUNTA(C114)&gt;0,"(+ Präsens)","")</f>
+      <c r="J114" t="str">
+        <f t="shared" si="7"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f aca="false">IF(COUNTA(C115)&gt;0, "%P", "")</f>
+        <f t="shared" ref="B115:B146" si="8">IF(COUNTA(C115)&gt;0, "%P", "")</f>
         <v/>
       </c>
       <c r="C115" s="1"/>
@@ -5746,17 +5976,17 @@
       <c r="I115" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J115" s="0" t="str">
-        <f aca="false">IF(COUNTA(C115)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" t="str">
+        <f t="shared" ref="J115:J143" si="9">IF(COUNTA(C115)&gt;0,"(+ Präsens)","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f aca="false">IF(COUNTA(C116)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5780,17 +6010,17 @@
       <c r="I116" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="J116" s="0" t="str">
-        <f aca="false">IF(COUNTA(C116)&gt;0,"(+ Präsens)","")</f>
+      <c r="J116" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f aca="false">IF(COUNTA(C117)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C117" s="1"/>
@@ -5812,17 +6042,17 @@
       <c r="I117" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="J117" s="0" t="str">
-        <f aca="false">IF(COUNTA(C117)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J117" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f aca="false">IF(COUNTA(C118)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -5846,17 +6076,17 @@
       <c r="I118" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="J118" s="0" t="str">
-        <f aca="false">IF(COUNTA(C118)&gt;0,"(+ Präsens)","")</f>
+      <c r="J118" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
         <v>511</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f aca="false">IF(COUNTA(C119)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C119" s="1"/>
@@ -5878,20 +6108,20 @@
       <c r="I119" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="J119" s="0" t="str">
-        <f aca="false">IF(COUNTA(C119)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J119" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f aca="false">IF(COUNTA(C120)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>516</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -5912,17 +6142,17 @@
       <c r="I120" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="J120" s="0" t="str">
-        <f aca="false">IF(COUNTA(C120)&gt;0,"(+ Präsens)","")</f>
+      <c r="J120" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f aca="false">IF(COUNTA(C121)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C121" s="1"/>
@@ -5944,17 +6174,17 @@
       <c r="I121" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="J121" s="0" t="str">
-        <f aca="false">IF(COUNTA(C121)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J121" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f aca="false">IF(COUNTA(C122)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D122" s="1" t="s">
@@ -5972,23 +6202,23 @@
       <c r="H122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I122" s="0" t="s">
+      <c r="I122" t="s">
         <v>527</v>
       </c>
-      <c r="J122" s="0" t="str">
-        <f aca="false">IF(COUNTA(C122)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J122" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f aca="false">IF(COUNTA(C123)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>529</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -6006,54 +6236,54 @@
       <c r="H123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I123" s="0" t="s">
+      <c r="I123" t="s">
         <v>532</v>
       </c>
-      <c r="J123" s="0" t="str">
-        <f aca="false">IF(COUNTA(C123)&gt;0,"(+ Präsens)","")</f>
+      <c r="J123" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>533</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f aca="false">IF(COUNTA(C124)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>534</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" t="s">
         <v>535</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G124" s="0" t="s">
+      <c r="G124" t="s">
         <v>536</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I124" s="0" t="s">
+      <c r="I124" t="s">
         <v>537</v>
       </c>
-      <c r="J124" s="0" t="str">
-        <f aca="false">IF(COUNTA(C124)&gt;0,"(+ Präsens)","")</f>
+      <c r="J124" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f aca="false">IF(COUNTA(C125)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C125" s="1"/>
@@ -6072,20 +6302,20 @@
       <c r="H125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I125" s="0" t="s">
+      <c r="I125" t="s">
         <v>541</v>
       </c>
-      <c r="J125" s="0" t="str">
-        <f aca="false">IF(COUNTA(C125)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J125" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f aca="false">IF(COUNTA(C126)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C126" s="1"/>
@@ -6107,17 +6337,17 @@
       <c r="I126" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="J126" s="0" t="str">
-        <f aca="false">IF(COUNTA(C126)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J126" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f aca="false">IF(COUNTA(C127)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C127" s="1"/>
@@ -6136,20 +6366,20 @@
       <c r="H127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I127" s="0" t="s">
+      <c r="I127" t="s">
         <v>549</v>
       </c>
-      <c r="J127" s="0" t="str">
-        <f aca="false">IF(COUNTA(C127)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J127" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f aca="false">IF(COUNTA(C128)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D128" s="1" t="s">
@@ -6167,20 +6397,20 @@
       <c r="H128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I128" s="0" t="s">
+      <c r="I128" t="s">
         <v>552</v>
       </c>
-      <c r="J128" s="0" t="str">
-        <f aca="false">IF(COUNTA(C128)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J128" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f aca="false">IF(COUNTA(C129)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C129" s="1"/>
@@ -6202,17 +6432,17 @@
       <c r="I129" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="J129" s="0" t="str">
-        <f aca="false">IF(COUNTA(C129)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J129" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f aca="false">IF(COUNTA(C130)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C130" s="1"/>
@@ -6234,17 +6464,17 @@
       <c r="I130" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="J130" s="0" t="str">
-        <f aca="false">IF(COUNTA(C130)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J130" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f aca="false">IF(COUNTA(C131)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -6268,17 +6498,17 @@
       <c r="I131" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J131" s="0" t="str">
-        <f aca="false">IF(COUNTA(C131)&gt;0,"(+ Präsens)","")</f>
+      <c r="J131" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f aca="false">IF(COUNTA(C132)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -6302,20 +6532,20 @@
       <c r="I132" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J132" s="0" t="str">
-        <f aca="false">IF(COUNTA(C132)&gt;0,"(+ Präsens)","")</f>
+      <c r="J132" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f aca="false">IF(COUNTA(C133)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>572</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -6336,17 +6566,17 @@
       <c r="I133" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="J133" s="0" t="str">
-        <f aca="false">IF(COUNTA(C133)&gt;0,"(+ Präsens)","")</f>
+      <c r="J133" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f aca="false">IF(COUNTA(C134)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -6370,17 +6600,17 @@
       <c r="I134" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="J134" s="0" t="str">
-        <f aca="false">IF(COUNTA(C134)&gt;0,"(+ Präsens)","")</f>
+      <c r="J134" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="s">
         <v>581</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f aca="false">IF(COUNTA(C135)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v>%P</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -6404,17 +6634,17 @@
       <c r="I135" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J135" s="0" t="str">
-        <f aca="false">IF(COUNTA(C135)&gt;0,"(+ Präsens)","")</f>
+      <c r="J135" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f aca="false">IF(COUNTA(C136)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C136" s="1"/>
@@ -6436,17 +6666,17 @@
       <c r="I136" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J136" s="0" t="str">
-        <f aca="false">IF(COUNTA(C136)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J136" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f aca="false">IF(COUNTA(C137)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C137" s="1"/>
@@ -6468,17 +6698,17 @@
       <c r="I137" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="J137" s="0" t="str">
-        <f aca="false">IF(COUNTA(C137)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J137" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f aca="false">IF(COUNTA(C138)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C138" s="1"/>
@@ -6500,17 +6730,17 @@
       <c r="I138" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J138" s="0" t="str">
-        <f aca="false">IF(COUNTA(C138)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J138" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
         <v>598</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f aca="false">IF(COUNTA(C139)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C139" s="1"/>
@@ -6532,17 +6762,17 @@
       <c r="I139" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J139" s="0" t="str">
-        <f aca="false">IF(COUNTA(C139)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J139" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f aca="false">IF(COUNTA(C140)&gt;0, "%P", "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="D140" s="1" t="s">
@@ -6563,168 +6793,143 @@
       <c r="I140" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="J140" s="0" t="str">
-        <f aca="false">IF(COUNTA(C140)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J140" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="H141" s="1"/>
-      <c r="J141" s="0" t="str">
-        <f aca="false">IF(COUNTA(C141)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="J141" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
         <v>606</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" t="s">
         <v>607</v>
       </c>
-      <c r="G142" s="0" t="s">
+      <c r="G142" t="s">
         <v>608</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J142" s="0" t="str">
-        <f aca="false">IF(COUNTA(C142)&gt;0,"(+ Präsens)","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="J142" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
         <v>609</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>610</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" t="s">
         <v>611</v>
       </c>
-      <c r="G143" s="0" t="s">
+      <c r="G143" t="s">
         <v>612</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J143" s="0" t="str">
-        <f aca="false">IF(COUNTA(C143)&gt;0,"(+ Präsens)","")</f>
+      <c r="J143" t="str">
+        <f t="shared" si="9"/>
         <v>(+ Präsens)</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
         <v>613</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" t="s">
         <v>614</v>
       </c>
-      <c r="G144" s="0" t="s">
+      <c r="G144" t="s">
         <v>615</v>
       </c>
-      <c r="I144" s="0" t="s">
+      <c r="I144" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
         <v>617</v>
       </c>
-      <c r="G145" s="0" t="s">
+      <c r="G145" t="s">
         <v>618</v>
       </c>
-      <c r="I145" s="0" t="s">
+      <c r="I145" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
         <v>620</v>
       </c>
-      <c r="G146" s="0" t="s">
+      <c r="G146" t="s">
         <v>621</v>
       </c>
-      <c r="I146" s="0" t="s">
+      <c r="I146" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
         <v>623</v>
       </c>
-      <c r="G147" s="0" t="s">
+      <c r="G147" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
         <v>625</v>
       </c>
-      <c r="G148" s="0" t="s">
+      <c r="G148" t="s">
         <v>626</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.59765625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.59765625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>